--- a/Gantt Timeline.xlsx
+++ b/Gantt Timeline.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Combine Front-end and Back-end</t>
+  </si>
+  <si>
+    <t>Polish Database</t>
   </si>
 </sst>
 </file>
@@ -152,9 +155,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Choose Project</c:v>
                 </c:pt>
@@ -186,18 +189,21 @@
                   <c:v>Create Comment System</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Prepare Progress Report</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Polish Database</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Combine Front-end and Back-end</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Prepare Progress Report</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Beta Testing (to CMU Community)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Final Presentation</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Write Final Report</c:v>
                 </c:pt>
               </c:strCache>
@@ -205,10 +211,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>40968</c:v>
                 </c:pt>
@@ -240,18 +246,21 @@
                   <c:v>40988</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>41001</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>40996</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>41001</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>41003</c:v>
+                  <c:v>40996</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>41007</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>41015</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>41022</c:v>
                 </c:pt>
               </c:numCache>
@@ -271,9 +280,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Choose Project</c:v>
                 </c:pt>
@@ -305,18 +314,21 @@
                   <c:v>Create Comment System</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Prepare Progress Report</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Polish Database</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Combine Front-end and Back-end</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Prepare Progress Report</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Beta Testing (to CMU Community)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Final Presentation</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Write Final Report</c:v>
                 </c:pt>
               </c:strCache>
@@ -324,10 +336,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -359,18 +371,21 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -378,11 +393,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="94168576"/>
-        <c:axId val="94170112"/>
+        <c:axId val="83752448"/>
+        <c:axId val="83753984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94168576"/>
+        <c:axId val="83752448"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -398,14 +413,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94170112"/>
+        <c:crossAx val="83753984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94170112"/>
+        <c:axId val="83753984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41026"/>
@@ -425,7 +440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94168576"/>
+        <c:crossAx val="83752448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -439,7 +454,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -534,8 +549,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1018612" cy="233205"/>
     <xdr:sp macro="" textlink="">
@@ -545,7 +560,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5438775" y="3819525"/>
+          <a:off x="5438775" y="3790950"/>
           <a:ext cx="1018612" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -592,7 +607,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005660" cy="233205"/>
     <xdr:sp macro="" textlink="">
@@ -602,7 +617,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7343775" y="3981450"/>
+          <a:off x="7343775" y="3952875"/>
           <a:ext cx="1005660" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -649,7 +664,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1160895" cy="233205"/>
     <xdr:sp macro="" textlink="">
@@ -659,7 +674,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="4162425"/>
+          <a:off x="7019925" y="4114800"/>
           <a:ext cx="1160895" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -701,7 +716,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="654988" cy="233205"/>
     <xdr:sp macro="" textlink="">
@@ -711,7 +726,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8010525" y="4343400"/>
+          <a:off x="8010525" y="4286250"/>
           <a:ext cx="654988" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -753,7 +768,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="559640" cy="233205"/>
     <xdr:sp macro="" textlink="">
@@ -763,7 +778,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8010525" y="4505325"/>
+          <a:off x="8010525" y="4448175"/>
           <a:ext cx="559640" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -803,9 +818,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="863378" cy="233205"/>
     <xdr:sp macro="" textlink="">
@@ -815,7 +830,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457950" y="4695825"/>
+          <a:off x="6467475" y="4619625"/>
           <a:ext cx="863378" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -862,7 +877,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="863378" cy="233205"/>
     <xdr:sp macro="" textlink="">
@@ -872,7 +887,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7115175" y="4867275"/>
+          <a:off x="7115175" y="4781550"/>
           <a:ext cx="863378" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -918,8 +933,8 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="863378" cy="233205"/>
     <xdr:sp macro="" textlink="">
@@ -929,7 +944,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8010525" y="5038725"/>
+          <a:off x="8010525" y="4943475"/>
           <a:ext cx="863378" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -973,10 +988,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="622093" cy="233205"/>
     <xdr:sp macro="" textlink="">
@@ -986,7 +1001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8553450" y="5229225"/>
+          <a:off x="8772525" y="5114925"/>
           <a:ext cx="622093" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1026,11 +1041,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="622093" cy="233205"/>
+    <xdr:ext cx="923266" cy="233205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -1038,8 +1053,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8791575" y="5391150"/>
-          <a:ext cx="622093" cy="233205"/>
+          <a:off x="9220200" y="5276850"/>
+          <a:ext cx="923266" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1068,7 +1083,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="900"/>
-            <a:t>Everyone</a:t>
+            <a:t>Tyler &amp; Jennifer</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1077,10 +1092,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="622093" cy="233205"/>
     <xdr:sp macro="" textlink="">
@@ -1090,7 +1105,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9553575" y="5572125"/>
+          <a:off x="9991725" y="5600700"/>
           <a:ext cx="622093" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1236,6 +1251,58 @@
             <a:t> &amp; Jennifer</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1101007" cy="233205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="5429250"/>
+          <a:ext cx="1101007" cy="233205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Stephanie &amp; Jessica</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1663,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1833,71 +1900,85 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>40996</v>
+        <v>41001</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>41000</v>
+        <v>41003</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
-        <v>41001</v>
+        <v>40996</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>41003</v>
+        <v>41007</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>41003</v>
+        <v>40996</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>41010</v>
+        <v>41007</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
-        <v>41015</v>
+        <v>41007</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2">
-        <v>41023</v>
+        <v>41014</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>41015</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>41023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>41022</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>41026</v>
       </c>
     </row>
